--- a/softwareProject/raisedCases.xlsx
+++ b/softwareProject/raisedCases.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -440,14 +440,60 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>324234</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>sadasdsdasda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>213123</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr"/>
+      <c r="B9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>/home/iiitg/Downloads/portal/softwareProject/YashaviGoelintershipoffer.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>/home/iiitg/Downloads/portal/softwareProject/123456SDD.pdf</t>
         </is>
       </c>
     </row>
